--- a/ig/main/ValueSet-eclaire-study-population-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-study-population-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-14T10:31:55+00:00</t>
+    <t>2023-10-17T10:04:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-eclaire-study-population-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-study-population-vs.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from Code de régulati" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from Codes pour carac" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Caractérisation de la poulation Value Set</t>
+    <t>Caractérisation de la population Value Set</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-17T10:04:53+00:00</t>
+    <t>2023-10-19T15:25:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Caractérisation de la poulation Value Set.</t>
+    <t>Caractérisation de la population Value Set.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/ig/main/ValueSet-eclaire-study-population-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-study-population-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-19T15:25:12+00:00</t>
+    <t>2023-10-19T16:10:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-eclaire-study-population-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-study-population-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-19T16:10:03+00:00</t>
+    <t>2023-10-20T07:19:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-eclaire-study-population-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-study-population-vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T07:19:33+00:00</t>
+    <t>2023-10-20T08:59:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>iso:code:3166:FR</t>
   </si>
   <si>
     <t>Description</t>
@@ -236,7 +242,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -336,20 +342,28 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>24</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -371,28 +385,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/ig/main/ValueSet-eclaire-study-population-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-study-population-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T08:59:58+00:00</t>
+    <t>2023-10-20T10:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-eclaire-study-population-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-study-population-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T10:14:02+00:00</t>
+    <t>2023-10-20T10:34:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>iso:code:3166:FR</t>
+    <t>France</t>
   </si>
   <si>
     <t>Description</t>

--- a/ig/main/ValueSet-eclaire-study-population-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-study-population-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T10:34:54+00:00</t>
+    <t>2023-10-20T10:58:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-eclaire-study-population-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-study-population-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T10:58:43+00:00</t>
+    <t>2023-10-20T11:42:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>France</t>
+    <t>FRANCE</t>
   </si>
   <si>
     <t>Description</t>

--- a/ig/main/ValueSet-eclaire-study-population-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-study-population-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T11:42:03+00:00</t>
+    <t>2023-10-20T11:56:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-eclaire-study-population-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-study-population-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T11:56:25+00:00</t>
+    <t>2023-10-23T16:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-eclaire-study-population-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-study-population-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-23T16:47:01+00:00</t>
+    <t>2023-10-23T17:13:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-eclaire-study-population-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-study-population-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-23T17:13:00+00:00</t>
+    <t>2023-10-24T08:06:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-eclaire-study-population-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-study-population-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-24T08:06:31+00:00</t>
+    <t>2023-10-24T08:15:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-eclaire-study-population-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-study-population-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-24T08:15:22+00:00</t>
+    <t>2023-10-26T14:31:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-eclaire-study-population-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-study-population-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-26T14:31:05+00:00</t>
+    <t>2023-11-02T12:47:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-eclaire-study-population-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-study-population-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T12:47:44+00:00</t>
+    <t>2023-11-06T08:01:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-eclaire-study-population-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-study-population-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-06T08:01:54+00:00</t>
+    <t>2023-11-13T14:27:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-eclaire-study-population-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-study-population-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-13T14:27:10+00:00</t>
+    <t>2023-12-23T14:24:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-eclaire-study-population-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-study-population-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-23T14:24:05+00:00</t>
+    <t>2024-01-11T09:08:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-eclaire-study-population-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-study-population-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-11T09:08:43+00:00</t>
+    <t>2024-01-11T11:17:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-eclaire-study-population-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-study-population-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-11T11:17:12+00:00</t>
+    <t>2024-01-15T10:25:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-eclaire-study-population-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-study-population-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T10:25:07+00:00</t>
+    <t>2024-01-15T15:13:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-eclaire-study-population-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-study-population-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T15:13:31+00:00</t>
+    <t>2024-01-15T15:15:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-eclaire-study-population-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-study-population-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T15:15:33+00:00</t>
+    <t>2024-01-22T13:46:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-eclaire-study-population-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-study-population-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-22T13:46:22+00:00</t>
+    <t>2024-01-24T10:06:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-eclaire-study-population-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-study-population-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-24T10:06:27+00:00</t>
+    <t>2024-01-24T12:52:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-eclaire-study-population-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-study-population-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-24T12:52:29+00:00</t>
+    <t>2024-01-24T17:10:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-eclaire-study-population-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-study-population-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-24T17:10:03+00:00</t>
+    <t>2024-02-12T09:57:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-eclaire-study-population-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-study-population-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-12T09:57:27+00:00</t>
+    <t>2024-02-15T13:54:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-eclaire-study-population-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-study-population-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T13:54:33+00:00</t>
+    <t>2024-02-15T16:42:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-eclaire-study-population-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-study-population-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T16:42:49+00:00</t>
+    <t>2024-02-15T16:43:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-eclaire-study-population-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-study-population-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T16:43:54+00:00</t>
+    <t>2024-02-15T17:28:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-eclaire-study-population-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-study-population-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T17:28:18+00:00</t>
+    <t>2024-02-16T08:51:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-eclaire-study-population-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-study-population-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-16T08:51:01+00:00</t>
+    <t>2024-02-16T15:42:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-eclaire-study-population-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-study-population-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-16T15:42:28+00:00</t>
+    <t>2024-02-19T18:04:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-eclaire-study-population-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-study-population-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-19T18:04:21+00:00</t>
+    <t>2024-02-25T14:21:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-eclaire-study-population-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-study-population-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-25T14:21:10+00:00</t>
+    <t>2024-02-25T15:41:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-eclaire-study-population-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-study-population-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-25T15:41:48+00:00</t>
+    <t>2024-02-26T09:09:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-eclaire-study-population-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-study-population-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-26T09:09:46+00:00</t>
+    <t>2024-02-26T09:34:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-eclaire-study-population-vs.xlsx
+++ b/ig/main/ValueSet-eclaire-study-population-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-26T09:34:45+00:00</t>
+    <t>2024-02-26T09:56:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
